--- a/medicine/Psychotrope/Madeleine_Angevine/Madeleine_Angevine.xlsx
+++ b/medicine/Psychotrope/Madeleine_Angevine/Madeleine_Angevine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La madeleine angevine est un cépage de raisins blancs.
@@ -512,14 +524,16 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est d’origine française. L'origine génétique n’est pas vérifiée mais ce serait un croisement des cépages Madeleine royale x Précoce de Malingre réalisé en 1857.
 Moreau-Robert commercialisa les plants à partir de 1863. Il présenta cette variété comme la plus précoce. La Madeleine Angevine a été souvent utilisée par les hybrideurs pour obtenir des cépages précoces.
 La Madeleine Angevine a servi de géniteurs pour les variétés Comtessa, Forta, Noblessa, Perle de Czabah, Reichensteiner et Siegerrebe.
 La « Madeleine Angevine Oberlin » est un semis de madeleine angevine réalisé par Chrétien Oberlin.
 Son nom vient en référence à la maturité relativement précoce à la Sainte-Madeleine le 22 juillet.
-Elle est autorisée en Belgique dans l'AOC Côtes de Sambre et Meuse[1].
+Elle est autorisée en Belgique dans l'AOC Côtes de Sambre et Meuse.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à liseré carminé.
 Jeunes feuilles duveteuses, blanc jaunâtre.
@@ -580,7 +596,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque précoce : 15 à 20 jours avant le chasselas.
 </t>
@@ -611,7 +629,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont petites à moyennes et les baies sont de taille grosse. La grappe est cylindrique et compacte.
 </t>
@@ -642,7 +662,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La madeleine angevine est connue sous les noms de chasselas de Talhouet, korai magda, maddalena angevina, madlen anževin, magdalenka skora, magdalina anzhuiskaya, margitszölö, petrovskii.
 </t>
